--- a/logger.xlsx
+++ b/logger.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georgi\Documents\GitHub\final-project-team-scala_weather_bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCD8F74-BE23-468B-B47D-5BB3404270F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="football" r:id="rId5" sheetId="2"/>
-    <sheet name="current" r:id="rId6" sheetId="3"/>
-    <sheet name="forecast" r:id="rId7" sheetId="4"/>
+    <sheet name="football" sheetId="2" r:id="rId2"/>
+    <sheet name="current" sheetId="3" r:id="rId3"/>
+    <sheet name="forecast" sheetId="4" r:id="rId4"/>
+    <sheet name="timezone" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>List(Wed, 29 Jun 2022 13:27:32 GMT)</t>
   </si>
@@ -42,12 +49,6 @@
     <t>List(Wed, 29 Jun 2022 14:03:39 GMT)</t>
   </si>
   <si>
-    <t>List(Wed, 29 Jun 2022 14:06:52 GMT)</t>
-  </si>
-  <si>
-    <t>{"location":{"name":"Plovdiv","region":"Plovdiv","country":"Bulgaria","lat":42.15,"lon":24.75,"tz_id":"Europe/Sofia","localtime_epoch":1656511588,"localtime":"2022-06-29 17:06"},"current":{"last_updated_epoch":1656507600,"last_updated":"2022-06-29 16:00","temp_c":31.0,"temp_f":87.8,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":2.2,"wind_kph":3.6,"wind_degree":130,"wind_dir":"SE","pressure_mb":1015.0,"pressure_in":29.97,"precip_mm":0.0,"precip_in":0.0,"humidity":33,"cloud":0,"feelslike_c":29.7,"feelslike_f":85.5,"vis_km":10.0,"vis_miles":6.0,"uv":8.0,"gust_mph":4.0,"gust_kph":6.5}}</t>
-  </si>
-  <si>
     <t>current</t>
   </si>
   <si>
@@ -58,12 +59,147 @@
   </si>
   <si>
     <t>forecast</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Json Response</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 08:12:17 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Sofia","region":"Grad Sofiya","country":"Bulgaria","lat":42.68,"lon":23.32,"tz_id":"Europe/Sofia","localtime_epoch":1656749537,"localtime":"2022-07-02 11:12"},"current":{"last_updated_epoch":1656745200,"last_updated":"2022-07-02 10:00","temp_c":26.0,"temp_f":78.8,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":2.2,"wind_kph":3.6,"wind_degree":53,"wind_dir":"NE","pressure_mb":1020.0,"pressure_in":30.12,"precip_mm":0.0,"precip_in":0.0,"humidity":58,"cloud":0,"feelslike_c":25.8,"feelslike_f":78.4,"vis_km":10.0,"vis_miles":6.0,"uv":7.0,"gust_mph":4.0,"gust_kph":6.5}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 08:51:26 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Pernik","region":"Pernik","country":"Bulgaria","lat":42.6,"lon":23.03,"tz_id":"Europe/Sofia","localtime_epoch":1656751886,"localtime":"2022-07-02 11:51"}}</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 08:51:49 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Varna","region":"Varna","country":"Bulgaria","lat":43.22,"lon":27.92,"tz_id":"Europe/Sofia","localtime_epoch":1656751909,"localtime":"2022-07-02 11:51"},"current":{"last_updated_epoch":1656751500,"last_updated":"2022-07-02 11:45","temp_c":27.0,"temp_f":80.6,"is_day":1,"condition":{"text":"Partly cloudy","icon":"//cdn.weatherapi.com/weather/64x64/day/116.png","code":1003},"wind_mph":6.9,"wind_kph":11.2,"wind_degree":130,"wind_dir":"SE","pressure_mb":1017.0,"pressure_in":30.03,"precip_mm":0.0,"precip_in":0.0,"humidity":70,"cloud":25,"feelslike_c":27.7,"feelslike_f":81.8,"vis_km":10.0,"vis_miles":6.0,"uv":7.0,"gust_mph":10.1,"gust_kph":16.2},"forecast":{"forecastday":[{"date":"2022-07-02","date_epoch":1656720000,"day":{"maxtemp_c":31.2,"maxtemp_f":88.2,"mintemp_c":18.6,"mintemp_f":65.5,"avgtemp_c":24.3,"avgtemp_f":75.8,"maxwind_mph":12.3,"maxwind_kph":19.8,"totalprecip_mm":0.0,"totalprecip_in":0.0,"avgvis_km":10.0,"avgvis_miles":6.0,"avghumidity":65.0,"daily_will_it_rain":0,"daily_chance_of_rain":0,"daily_will_it_snow":0,"daily_chance_of_snow":0,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"uv":9.0},"astro":{"sunrise":"05:33 AM","sunset":"08:52 PM","moonrise":"08:15 AM","moonset":"11:24 PM","moon_phase":"Waxing Crescent","moon_illumination":"19"},"hour":[{"time_epoch":1656709200,"time":"2022-07-02 00:00","temp_c":19.7,"temp_f":67.5,"is_day":0,"condition":{"text":"Clear","icon":"//cdn.weatherapi.com/weather/64x64/night/113.png","code":1000},"wind_mph":1.6,"wind_kph":2.5,"wind_degree":0,"wind_dir":"N","pressure_mb":1016.0,"pressure_in":30.01,"precip_mm":0.0,"precip_in":0.0,"humidity":80,"cloud":3,"feelslike_c":19.7,"feelslike_f":67.5,"windchill_c":19.7,"windchill_f":67.5,"heatindex_c":19.7,"heatindex_f":67.5,"dewpoint_c":16.1,"dewpoint_f":61.0,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":3.4,"gust_kph":5.4,"uv":1.0},{"time_epoch":1656712800,"time":"2022-07-02 01:00","temp_c":19.4,"temp_f":66.9,"is_day":0,"condition":{"text":"Clear","icon":"//cdn.weatherapi.com/weather/64x64/night/113.png","code":1000},"wind_mph":2.2,"wind_kph":3.6,"wind_degree":340,"wind_dir":"NNW","pressure_mb":1016.0,"pressure_in":30.01,"precip_mm":0.0,"precip_in":0.0,"humidity":80,"cloud":0,"feelslike_c":19.4,"feelslike_f":66.9,"windchill_c":19.4,"windchill_f":66.9,"heatindex_c":19.4,"heatindex_f":66.9,"dewpoint_c":15.9,"dewpoint_f":60.6,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":4.7,"gust_kph":7.6,"uv":1.0},{"time_epoch":1656716400,"time":"2022-07-02 02:00","temp_c":19.1,"temp_f":66.4,"is_day":0,"condition":{"text":"Clear","icon":"//cdn.weatherapi.com/weather/64x64/night/113.png","code":1000},"wind_mph":2.5,"wind_kph":4.0,"wind_degree":316,"wind_dir":"NW","pressure_mb":1016.0,"pressure_in":30.01,"precip_mm":0.0,"precip_in":0.0,"humidity":80,"cloud":0,"feelslike_c":19.1,"feelslike_f":66.4,"windchill_c":19.1,"windchill_f":66.4,"heatindex_c":19.1,"heatindex_f":66.4,"dewpoint_c":15.5,"dewpoint_f":59.9,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":5.1,"gust_kph":8.3,"uv":1.0},{"time_epoch":1656720000,"time":"2022-07-02 03:00","temp_c":18.8,"temp_f":65.8,"is_day":0,"condition":{"text":"Clear","icon":"//cdn.weatherapi.com/weather/64x64/night/113.png","code":1000},"wind_mph":3.8,"wind_kph":6.1,"wind_degree":333,"wind_dir":"NNW","pressure_mb":1016.0,"pressure_in":30.01,"precip_mm":0.0,"precip_in":0.0,"humidity":80,"cloud":4,"feelslike_c":18.8,"feelslike_f":65.8,"windchill_c":18.8,"windchill_f":65.8,"heatindex_c":18.8,"heatindex_f":65.8,"dewpoint_c":15.2,"dewpoint_f":59.4,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":8.1,"gust_kph":13.0,"uv":1.0},{"time_epoch":1656723600,"time":"2022-07-02 04:00","temp_c":18.6,"temp_f":65.5,"is_day":0,"condition":{"text":"Clear","icon":"//cdn.weatherapi.com/weather/64x64/night/113.png","code":1000},"wind_mph":4.3,"wind_kph":6.8,"wind_degree":357,"wind_dir":"N","pressure_mb":1016.0,"pressure_in":30.01,"precip_mm":0.0,"precip_in":0.0,"humidity":78,"cloud":6,"feelslike_c":18.6,"feelslike_f":65.5,"windchill_c":18.6,"windchill_f":65.5,"heatindex_c":18.6,"heatindex_f":65.5,"dewpoint_c":14.7,"dewpoint_f":58.5,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":8.9,"gust_kph":14.4,"uv":1.0},{"time_epoch":1656727200,"time":"2022-07-02 05:00","temp_c":18.7,"temp_f":65.7,"is_day":0,"condition":{"text":"Clear","icon":"//cdn.weatherapi.com/weather/64x64/night/113.png","code":1000},"wind_mph":4.3,"wind_kph":6.8,"wind_degree":10,"wind_dir":"N","pressure_mb":1016.0,"pressure_in":30.01,"precip_mm":0.0,"precip_in":0.0,"humidity":77,"cloud":10,"feelslike_c":18.7,"feelslike_f":65.7,"windchill_c":18.7,"windchill_f":65.7,"heatindex_c":18.7,"heatindex_f":65.7,"dewpoint_c":14.5,"dewpoint_f":58.1,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":8.9,"gust_kph":14.4,"uv":1.0},{"time_epoch":1656730800,"time":"2022-07-02 06:00","temp_c":20.5,"temp_f":68.9,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":4.0,"wind_kph":6.5,"wind_degree":24,"wind_dir":"NNE","pressure_mb":1017.0,"pressure_in":30.02,"precip_mm":0.0,"precip_in":0.0,"humidity":71,"cloud":8,"feelslike_c":20.5,"feelslike_f":68.9,"windchill_c":20.5,"windchill_f":68.9,"heatindex_c":20.5,"heatindex_f":68.9,"dewpoint_c":15.0,"dewpoint_f":59.0,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":7.2,"gust_kph":11.5,"uv":6.0},{"time_epoch":1656734400,"time":"2022-07-02 07:00","temp_c":23.3,"temp_f":73.9,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":4.9,"wind_kph":7.9,"wind_degree":36,"wind_dir":"NE","pressure_mb":1017.0,"pressure_in":30.03,"precip_mm":0.0,"precip_in":0.0,"humidity":63,"cloud":5,"feelslike_c":25.1,"feelslike_f":77.2,"windchill_c":23.3,"windchill_f":73.9,"heatindex_c":25.1,"heatindex_f":77.2,"dewpoint_c":16.0,"dewpoint_f":60.8,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":5.8,"gust_kph":9.4,"uv":6.0},{"time_epoch":1656738000,"time":"2022-07-02 08:00","temp_c":25.0,"temp_f":77.0,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":6.5,"wind_kph":10.4,"wind_degree":54,"wind_dir":"NE","pressure_mb":1017.0,"pressure_in":30.04,"precip_mm":0.0,"precip_in":0.0,"humidity":58,"cloud":2,"feelslike_c":26.1,"feelslike_f":79.0,"windchill_c":25.0,"windchill_f":77.0,"heatindex_c":26.1,"heatindex_f":79.0,"dewpoint_c":16.2,"dewpoint_f":61.2,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":7.4,"gust_kph":11.9,"uv":7.0},{"time_epoch":1656741600,"time":"2022-07-02 09:00","temp_c":26.2,"temp_f":79.2,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":7.8,"wind_kph":12.6,"wind_degree":72,"wind_dir":"ENE","pressure_mb":1018.0,"pressure_in":30.05,"precip_mm":0.0,"precip_in":0.0,"humidity":54,"cloud":0,"feelslike_c":27.0,"feelslike_f":80.6,"windchill_c":26.2,"windchill_f":79.2,"heatindex_c":27.0,"heatindex_f":80.6,"dewpoint_c":16.1,"dewpoint_f":61.0,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":8.9,"gust_kph":14.4,"uv":7.0},{"time_epoch":1656745200,"time":"2022-07-02 10:00","temp_c":27.1,"temp_f":80.8,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":8.7,"wind_kph":14.0,"wind_degree":84,"wind_dir":"E","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":51,"cloud":0,"feelslike_c":27.8,"feelslike_f":82.0,"windchill_c":27.1,"windchill_f":80.8,"heatindex_c":27.8,"heatindex_f":82.0,"dewpoint_c":16.0,"dewpoint_f":60.8,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":10.1,"gust_kph":16.2,"uv":7.0},{"time_epoch":1656748800,"time":"2022-07-02 11:00","temp_c":30.7,"temp_f":87.3,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":10.5,"wind_kph":16.9,"wind_degree":93,"wind_dir":"E","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":49,"cloud":1,"feelslike_c":32.4,"feelslike_f":90.3,"windchill_c":30.7,"windchill_f":87.3,"heatindex_c":32.4,"heatindex_f":90.3,"dewpoint_c":18.8,"dewpoint_f":65.8,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":12.1,"gust_kph":19.4,"uv":8.0},{"time_epoch":1656752400,"time":"2022-07-02 12:00","temp_c":31.1,"temp_f":88.0,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":11.6,"wind_kph":18.7,"wind_degree":98,"wind_dir":"E","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":48,"cloud":4,"feelslike_c":32.9,"feelslike_f":91.2,"windchill_c":31.1,"windchill_f":88.0,"heatindex_c":32.9,"heatindex_f":91.2,"dewpoint_c":18.8,"dewpoint_f":65.8,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":13.4,"gust_kph":21.6,"uv":8.0},{"time_epoch":1656756000,"time":"2022-07-02 13:00","temp_c":31.2,"temp_f":88.2,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":12.1,"wind_kph":19.4,"wind_degree":103,"wind_dir":"ESE","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":47,"cloud":6,"feelslike_c":32.9,"feelslike_f":91.2,"windchill_c":31.2,"windchill_f":88.2,"heatindex_c":32.9,"heatindex_f":91.2,"dewpoint_c":18.5,"dewpoint_f":65.3,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":13.9,"gust_kph":22.3,"uv":8.0},{"time_epoch":1656759600,"time":"2022-07-02 14:00","temp_c":31.1,"temp_f":88.0,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":11.9,"wind_kph":19.1,"wind_degree":105,"wind_dir":"ESE","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":47,"cloud":6,"feelslike_c":32.7,"feelslike_f":90.9,"windchill_c":31.1,"windchill_f":88.0,"heatindex_c":32.7,"heatindex_f":90.9,"dewpoint_c":18.4,"dewpoint_f":65.1,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":13.6,"gust_kph":22.0,"uv":8.0},{"time_epoch":1656763200,"time":"2022-07-02 15:00","temp_c":30.8,"temp_f":87.4,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":12.3,"wind_kph":19.8,"wind_degree":103,"wind_dir":"ESE","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":48,"cloud":6,"feelslike_c":32.5,"feelslike_f":90.5,"windchill_c":30.8,"windchill_f":87.4,"heatindex_c":32.5,"heatindex_f":90.5,"dewpoint_c":18.7,"dewpoint_f":65.7,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":14.1,"gust_kph":22.7,"uv":8.0},{"time_epoch":1656766800,"time":"2022-07-02 16:00","temp_c":29.6,"temp_f":85.3,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":11.9,"wind_kph":19.1,"wind_degree":102,"wind_dir":"ESE","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":51,"cloud":4,"feelslike_c":31.0,"feelslike_f":87.8,"windchill_c":29.6,"windchill_f":85.3,"heatindex_c":31.0,"heatindex_f":87.8,"dewpoint_c":18.3,"dewpoint_f":64.9,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":13.6,"gust_kph":22.0,"uv":7.0},{"time_epoch":1656770400,"time":"2022-07-02 17:00","temp_c":28.4,"temp_f":83.1,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":10.1,"wind_kph":16.2,"wind_degree":95,"wind_dir":"E","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":53,"cloud":2,"feelslike_c":29.5,"feelslike_f":85.1,"windchill_c":28.4,"windchill_f":83.1,"heatindex_c":29.5,"heatindex_f":85.1,"dewpoint_c":17.8,"dewpoint_f":64.0,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":11.6,"gust_kph":18.7,"uv":7.0},{"time_epoch":1656774000,"time":"2022-07-02 18:00","temp_c":27.0,"temp_f":80.6,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":9.2,"wind_kph":14.8,"wind_degree":94,"wind_dir":"E","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":56,"cloud":2,"feelslike_c":28.0,"feelslike_f":82.4,"windchill_c":27.0,"windchill_f":80.6,"heatindex_c":28.0,"heatindex_f":82.4,"dewpoint_c":17.4,"dewpoint_f":63.3,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":10.5,"gust_kph":16.9,"uv":7.0},{"time_epoch":1656777600,"time":"2022-07-02 19:00","temp_c":26.3,"temp_f":79.3,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":8.3,"wind_kph":13.3,"wind_degree":95,"wind_dir":"E","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":67,"cloud":4,"feelslike_c":27.9,"feelslike_f":82.2,"windchill_c":26.3,"windchill_f":79.3,"heatindex_c":27.9,"heatindex_f":82.2,"dewpoint_c":19.6,"dewpoint_f":67.3,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":9.6,"gust_kph":15.5,"uv":7.0},{"time_epoch":1656781200,"time":"2022-07-02 20:00","temp_c":21.1,"temp_f":70.0,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":6.9,"wind_kph":11.2,"wind_degree":95,"wind_dir":"E","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":81,"cloud":4,"feelslike_c":21.1,"feelslike_f":70.0,"windchill_c":21.1,"windchill_f":70.0,"heatindex_c":24.3,"heatindex_f":75.7,"dewpoint_c":17.7,"dewpoint_f":63.9,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":14.1,"gust_kph":22.7,"uv":6.0},{"time_epoch":1656784800,"time":"2022-07-02 21:00","temp_c":20.4,"temp_f":68.7,"is_day":0,"condition":{"text":"Clear","icon":"//cdn.weatherapi.com/weather/64x64/night/113.png","code":1000},"wind_mph":4.5,"wind_kph":7.2,"wind_degree":92,"wind_dir":"E","pressure_mb":1019.0,"pressure_in":30.09,"precip_mm":0.0,"precip_in":0.0,"humidity":83,"cloud":4,"feelslike_c":20.4,"feelslike_f":68.7,"windchill_c":20.4,"windchill_f":68.7,"heatindex_c":20.4,"heatindex_f":68.7,"dewpoint_c":17.4,"dewpoint_f":63.3,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":9.4,"gust_kph":15.1,"uv":1.0},{"time_epoch":1656788400,"time":"2022-07-02 22:00","temp_c":20.2,"temp_f":68.4,"is_day":0,"condition":{"text":"Clear","icon":"//cdn.weatherapi.com/weather/64x64/night/113.png","code":1000},"wind_mph":4.0,"wind_kph":6.5,"wind_degree":76,"wind_dir":"ENE","pressure_mb":1019.0,"pressure_in":30.1,"precip_mm":0.0,"precip_in":0.0,"humidity":82,"cloud":4,"feelslike_c":20.2,"feelslike_f":68.4,"windchill_c":20.2,"windchill_f":68.4,"heatindex_c":20.2,"heatindex_f":68.4,"dewpoint_c":17.0,"dewpoint_f":62.6,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":8.5,"gust_kph":13.7,"uv":1.0},{"time_epoch":1656792000,"time":"2022-07-02 23:00","temp_c":20.0,"temp_f":68.0,"is_day":0,"condition":{"text":"Clear","icon":"//cdn.weatherapi.com/weather/64x64/night/113.png","code":1000},"wind_mph":3.6,"wind_kph":5.8,"wind_degree":69,"wind_dir":"ENE","pressure_mb":1019.0,"pressure_in":30.1,"precip_mm":0.0,"precip_in":0.0,"humidity":80,"cloud":4,"feelslike_c":20.0,"feelslike_f":68.0,"windchill_c":20.0,"windchill_f":68.0,"heatindex_c":20.0,"heatindex_f":68.0,"dewpoint_c":16.5,"dewpoint_f":61.7,"will_it_rain":0,"chance_of_rain":0,"will_it_snow":0,"chance_of_snow":0,"vis_km":10.0,"vis_miles":6.0,"gust_mph":7.6,"gust_kph":12.2,"uv":1.0}]}]}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 08:54:11 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Paris","region":"Ile-de-France","country":"France","lat":48.87,"lon":2.33,"tz_id":"Europe/Paris","localtime_epoch":1656752051,"localtime":"2022-07-02 10:54"},"current":{"last_updated_epoch":1656751500,"last_updated":"2022-07-02 10:45","temp_c":22.0,"temp_f":71.6,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":2.2,"wind_kph":3.6,"wind_degree":170,"wind_dir":"S","pressure_mb":1022.0,"pressure_in":30.18,"precip_mm":0.0,"precip_in":0.0,"humidity":46,"cloud":0,"feelslike_c":24.5,"feelslike_f":76.0,"vis_km":10.0,"vis_miles":6.0,"uv":5.0,"gust_mph":6.3,"gust_kph":10.1}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 08:57:57 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Oslo","region":"Oslo","country":"Norway","lat":59.92,"lon":10.75,"tz_id":"Europe/Oslo","localtime_epoch":1656752277,"localtime":"2022-07-02 10:57"},"current":{"last_updated_epoch":1656751500,"last_updated":"2022-07-02 10:45","temp_c":16.0,"temp_f":60.8,"is_day":1,"condition":{"text":"Partly cloudy","icon":"//cdn.weatherapi.com/weather/64x64/day/116.png","code":1003},"wind_mph":11.9,"wind_kph":19.1,"wind_degree":190,"wind_dir":"S","pressure_mb":1011.0,"pressure_in":29.85,"precip_mm":0.0,"precip_in":0.0,"humidity":88,"cloud":75,"feelslike_c":16.0,"feelslike_f":60.8,"vis_km":10.0,"vis_miles":6.0,"uv":4.0,"gust_mph":11.4,"gust_kph":18.4}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:01:37 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Velikovechnoye","region":"Krasnodar","country":"Russia","lat":44.93,"lon":39.76,"tz_id":"Europe/Moscow","localtime_epoch":1656752497,"localtime":"2022-07-02 12:01"},"current":{"last_updated_epoch":1656748800,"last_updated":"2022-07-02 11:00","temp_c":24.3,"temp_f":75.7,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":11.2,"wind_kph":18.0,"wind_degree":15,"wind_dir":"NNE","pressure_mb":1015.0,"pressure_in":29.96,"precip_mm":0.0,"precip_in":0.0,"humidity":47,"cloud":7,"feelslike_c":25.3,"feelslike_f":77.5,"vis_km":10.0,"vis_miles":6.0,"uv":6.0,"gust_mph":13.0,"gust_kph":20.9}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:04:09 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Velikovechnoye","region":"Krasnodar","country":"Russia","lat":44.93,"lon":39.76,"tz_id":"Europe/Moscow","localtime_epoch":1656752649,"localtime":"2022-07-02 12:04"},"current":{"last_updated_epoch":1656748800,"last_updated":"2022-07-02 11:00","temp_c":24.3,"temp_f":75.7,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":11.2,"wind_kph":18.0,"wind_degree":15,"wind_dir":"NNE","pressure_mb":1015.0,"pressure_in":29.96,"precip_mm":0.0,"precip_in":0.0,"humidity":47,"cloud":7,"feelslike_c":25.3,"feelslike_f":77.5,"vis_km":10.0,"vis_miles":6.0,"uv":6.0,"gust_mph":13.0,"gust_kph":20.9}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:05:22 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Austin","region":"Texas","country":"United States of America","lat":30.27,"lon":-97.74,"tz_id":"America/Chicago","localtime_epoch":1656752722,"localtime":"2022-07-02 4:05"},"current":{"last_updated_epoch":1656748800,"last_updated":"2022-07-02 03:00","temp_c":25.0,"temp_f":77.0,"is_day":0,"condition":{"text":"Partly cloudy","icon":"//cdn.weatherapi.com/weather/64x64/night/116.png","code":1003},"wind_mph":4.3,"wind_kph":6.8,"wind_degree":180,"wind_dir":"S","pressure_mb":1013.0,"pressure_in":29.92,"precip_mm":0.1,"precip_in":0.0,"humidity":90,"cloud":25,"feelslike_c":27.1,"feelslike_f":80.9,"vis_km":16.0,"vis_miles":9.0,"uv":1.0,"gust_mph":10.7,"gust_kph":17.3}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:06:36 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Madrid","region":"Madrid","country":"Spain","lat":40.4,"lon":-3.68,"tz_id":"Europe/Madrid","localtime_epoch":1656752796,"localtime":"2022-07-02 11:06"},"current":{"last_updated_epoch":1656748800,"last_updated":"2022-07-02 10:00","temp_c":24.0,"temp_f":75.2,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":5.6,"wind_kph":9.0,"wind_degree":90,"wind_dir":"E","pressure_mb":1020.0,"pressure_in":30.12,"precip_mm":0.0,"precip_in":0.0,"humidity":57,"cloud":0,"feelslike_c":25.2,"feelslike_f":77.3,"vis_km":10.0,"vis_miles":6.0,"uv":7.0,"gust_mph":8.9,"gust_kph":14.4}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:10:08 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Ruse","region":"Ruse","country":"Bulgaria","lat":43.86,"lon":25.97,"tz_id":"Europe/Bucharest","localtime_epoch":1656752973,"localtime":"2022-07-02 12:09"},"current":{"last_updated_epoch":1656748800,"last_updated":"2022-07-02 11:00","temp_c":34.3,"temp_f":93.7,"is_day":1,"condition":{"text":"Partly cloudy","icon":"//cdn.weatherapi.com/weather/64x64/day/116.png","code":1003},"wind_mph":8.1,"wind_kph":13.0,"wind_degree":86,"wind_dir":"E","pressure_mb":1017.0,"pressure_in":30.03,"precip_mm":0.0,"precip_in":0.0,"humidity":25,"cloud":35,"feelslike_c":33.3,"feelslike_f":91.9,"vis_km":10.0,"vis_miles":6.0,"uv":8.0,"gust_mph":9.2,"gust_kph":14.8}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:11:33 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Vidin","region":"Vidin","country":"Bulgaria","lat":43.99,"lon":22.87,"tz_id":"Europe/Sofia","localtime_epoch":1656753093,"localtime":"2022-07-02 12:11"},"current":{"last_updated_epoch":1656748800,"last_updated":"2022-07-02 11:00","temp_c":38.1,"temp_f":100.6,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":3.6,"wind_kph":5.8,"wind_degree":48,"wind_dir":"NE","pressure_mb":1017.0,"pressure_in":30.02,"precip_mm":0.0,"precip_in":0.0,"humidity":27,"cloud":12,"feelslike_c":39.4,"feelslike_f":102.9,"vis_km":10.0,"vis_miles":6.0,"uv":9.0,"gust_mph":4.0,"gust_kph":6.5}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:12:27 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Sofia","region":"Grad Sofiya","country":"Bulgaria","lat":42.68,"lon":23.32,"tz_id":"Europe/Sofia","localtime_epoch":1656753138,"localtime":"2022-07-02 12:12"},"current":{"last_updated_epoch":1656748800,"last_updated":"2022-07-02 11:00","temp_c":28.0,"temp_f":82.4,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":2.2,"wind_kph":3.6,"wind_degree":53,"wind_dir":"NE","pressure_mb":1020.0,"pressure_in":30.12,"precip_mm":0.0,"precip_in":0.0,"humidity":51,"cloud":0,"feelslike_c":27.1,"feelslike_f":80.8,"vis_km":10.0,"vis_miles":6.0,"uv":8.0,"gust_mph":6.3,"gust_kph":10.1}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:13:50 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Elin Pelin","region":"Sofiya","country":"Bulgaria","lat":42.67,"lon":23.6,"tz_id":"Europe/Sofia","localtime_epoch":1656753230,"localtime":"2022-07-02 12:13"},"current":{"last_updated_epoch":1656748800,"last_updated":"2022-07-02 11:00","temp_c":28.0,"temp_f":82.4,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":2.2,"wind_kph":3.6,"wind_degree":53,"wind_dir":"NE","pressure_mb":1020.0,"pressure_in":30.12,"precip_mm":0.0,"precip_in":0.0,"humidity":51,"cloud":0,"feelslike_c":27.1,"feelslike_f":80.8,"vis_km":10.0,"vis_miles":6.0,"uv":8.0,"gust_mph":6.3,"gust_kph":10.1}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:14:53 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Dolni Chiflik","region":"Varna","country":"Bulgaria","lat":42.98,"lon":27.72,"tz_id":"Europe/Sofia","localtime_epoch":1656753293,"localtime":"2022-07-02 12:14"},"current":{"last_updated_epoch":1656748800,"last_updated":"2022-07-02 11:00","temp_c":27.0,"temp_f":80.6,"is_day":1,"condition":{"text":"Partly cloudy","icon":"//cdn.weatherapi.com/weather/64x64/day/116.png","code":1003},"wind_mph":6.9,"wind_kph":11.2,"wind_degree":130,"wind_dir":"SE","pressure_mb":1017.0,"pressure_in":30.03,"precip_mm":0.0,"precip_in":0.0,"humidity":70,"cloud":25,"feelslike_c":27.5,"feelslike_f":81.6,"vis_km":10.0,"vis_miles":6.0,"uv":8.0,"gust_mph":12.1,"gust_kph":19.4}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:16:06 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Stara Zagora","region":"Stara Zagora","country":"Bulgaria","lat":42.43,"lon":25.64,"tz_id":"Europe/Sofia","localtime_epoch":1656753366,"localtime":"2022-07-02 12:16"},"current":{"last_updated_epoch":1656753300,"last_updated":"2022-07-02 12:15","temp_c":31.0,"temp_f":87.8,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":5.6,"wind_kph":9.0,"wind_degree":99,"wind_dir":"E","pressure_mb":1017.0,"pressure_in":30.03,"precip_mm":0.0,"precip_in":0.0,"humidity":35,"cloud":19,"feelslike_c":30.6,"feelslike_f":87.1,"vis_km":10.0,"vis_miles":6.0,"uv":8.0,"gust_mph":6.5,"gust_kph":10.4}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:17:05 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Simeonovo","region":"Razgrad","country":"Bulgaria","lat":43.63,"lon":26.92,"tz_id":"Europe/Sofia","localtime_epoch":1656753425,"localtime":"2022-07-02 12:17"},"current":{"last_updated_epoch":1656753300,"last_updated":"2022-07-02 12:15","temp_c":32.3,"temp_f":90.1,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":9.2,"wind_kph":14.8,"wind_degree":81,"wind_dir":"E","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":31,"cloud":12,"feelslike_c":31.7,"feelslike_f":89.1,"vis_km":10.0,"vis_miles":6.0,"uv":8.0,"gust_mph":10.5,"gust_kph":16.9}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:17:53 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Gulubovo","region":"Plovdiv","country":"Bulgaria","lat":41.62,"lon":25.07,"tz_id":"Europe/Sofia","localtime_epoch":1656753473,"localtime":"2022-07-02 12:17"},"current":{"last_updated_epoch":1656753300,"last_updated":"2022-07-02 12:15","temp_c":30.9,"temp_f":87.6,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":10.5,"wind_kph":16.9,"wind_degree":26,"wind_dir":"NNE","pressure_mb":1017.0,"pressure_in":30.04,"precip_mm":0.0,"precip_in":0.0,"humidity":41,"cloud":9,"feelslike_c":31.5,"feelslike_f":88.7,"vis_km":10.0,"vis_miles":6.0,"uv":8.0,"gust_mph":12.1,"gust_kph":19.4}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:18:42 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Glavanesti","region":"Vaslui","country":"Romania","lat":46.25,"lon":27.38,"tz_id":"Europe/Bucharest","localtime_epoch":1656753522,"localtime":"2022-07-02 12:18"},"current":{"last_updated_epoch":1656753300,"last_updated":"2022-07-02 12:15","temp_c":32.9,"temp_f":91.2,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":4.5,"wind_kph":7.2,"wind_degree":127,"wind_dir":"SE","pressure_mb":1018.0,"pressure_in":30.06,"precip_mm":0.0,"precip_in":0.0,"humidity":32,"cloud":20,"feelslike_c":32.7,"feelslike_f":90.9,"vis_km":10.0,"vis_miles":6.0,"uv":8.0,"gust_mph":5.1,"gust_kph":8.3}}</t>
+  </si>
+  <si>
+    <t>List(Sat, 02 Jul 2022 09:19:58 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Pomostnik","region":"Khaskovo","country":"Bulgaria","lat":42.05,"lon":26.05,"tz_id":"Europe/Sofia","localtime_epoch":1656753588,"localtime":"2022-07-02 12:19"},"current":{"last_updated_epoch":1656753300,"last_updated":"2022-07-02 12:15","temp_c":33.6,"temp_f":92.5,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":11.9,"wind_kph":19.1,"wind_degree":40,"wind_dir":"NE","pressure_mb":1016.0,"pressure_in":30.01,"precip_mm":0.0,"precip_in":0.0,"humidity":29,"cloud":10,"feelslike_c":33.1,"feelslike_f":91.6,"vis_km":10.0,"vis_miles":6.0,"uv":8.0,"gust_mph":13.6,"gust_kph":22.0}}</t>
+  </si>
+  <si>
+    <t>(Sat, 02 Jul 2022 09:35:31 GMT)</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"Munchenstein","region":"","country":"Switzerland","lat":47.52,"lon":7.62,"tz_id":"Europe/Zurich","localtime_epoch":1656754531,"localtime":"2022-07-02 11:35"},"current":{"last_updated_epoch":1656754200,"last_updated":"2022-07-02 11:30","temp_c":21.0,"temp_f":69.8,"is_day":1,"condition":{"text":"Partly cloudy","icon":"//cdn.weatherapi.com/weather/64x64/day/116.png","code":1003},"wind_mph":2.2,"wind_kph":3.6,"wind_degree":41,"wind_dir":"NE","pressure_mb":1022.0,"pressure_in":30.18,"precip_mm":0.0,"precip_in":0.0,"humidity":60,"cloud":25,"feelslike_c":21.0,"feelslike_f":69.8,"vis_km":10.0,"vis_miles":6.0,"uv":6.0,"gust_mph":4.9,"gust_kph":7.9}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -98,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,28 +511,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -408,9 +544,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -422,9 +558,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -436,9 +572,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -451,60 +587,374 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="31.25"/>
+    <col min="3" max="3" customWidth="true" width="46.875"/>
+    <col min="4" max="4" customWidth="true" width="33.109375"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>